--- a/BackTest/2020-01-15 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-15 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>3.243899999997666</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>2782.994999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>1095.169299999998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>1430.062799999997</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>1589.209099999997</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-6058.739400000003</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-5981.739400000003</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-16902.2778</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-17069.1778</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-17872.1778</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-12143.452</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-12757.7255</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-12859.7255</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-14005.53</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,21 @@
         <v>-26227.88387424</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2043,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2080,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2117,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2154,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2191,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2228,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2265,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2302,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2339,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2376,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2413,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2450,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2487,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2524,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2561,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2598,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2635,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2672,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2709,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,22 +2744,19 @@
         <v>-31953.04947424</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>335</v>
-      </c>
-      <c r="K69" t="n">
-        <v>335</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2908,26 +2781,19 @@
         <v>-31970.05887424</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>334.9</v>
-      </c>
-      <c r="K70" t="n">
-        <v>335</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2952,26 +2818,19 @@
         <v>-31800.34807424</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>333.6</v>
-      </c>
-      <c r="K71" t="n">
-        <v>335</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2996,22 +2855,19 @@
         <v>-30936.79807424</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>336</v>
-      </c>
-      <c r="K72" t="n">
-        <v>336</v>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3036,26 +2892,19 @@
         <v>-30936.79807424</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="K73" t="n">
-        <v>336</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3080,26 +2929,19 @@
         <v>-31556.79807424</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="K74" t="n">
-        <v>336</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3126,22 +2968,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>336</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3168,22 +3005,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>336</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3208,26 +3040,19 @@
         <v>-31586.75807424</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="K77" t="n">
-        <v>336</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3252,26 +3077,19 @@
         <v>-31550.93827424</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="K78" t="n">
-        <v>336</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3296,26 +3114,21 @@
         <v>-31550.93827424</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
         <v>334.8</v>
       </c>
-      <c r="K79" t="n">
-        <v>336</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3340,26 +3153,21 @@
         <v>-31550.93827424</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
         <v>334.8</v>
       </c>
-      <c r="K80" t="n">
-        <v>336</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3384,26 +3192,21 @@
         <v>-31550.93827424</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
         <v>334.8</v>
       </c>
-      <c r="K81" t="n">
-        <v>336</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3428,26 +3231,21 @@
         <v>-32347.45447424</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
         <v>334.8</v>
       </c>
-      <c r="K82" t="n">
-        <v>336</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3472,26 +3270,19 @@
         <v>-27970.52417424</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>334.3</v>
-      </c>
-      <c r="K83" t="n">
-        <v>336</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3516,26 +3307,19 @@
         <v>-27970.52417424</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>334.5</v>
-      </c>
-      <c r="K84" t="n">
-        <v>336</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3560,26 +3344,19 @@
         <v>-27967.52417424</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>334.5</v>
-      </c>
-      <c r="K85" t="n">
-        <v>336</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3604,26 +3381,19 @@
         <v>-27985.52417424</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="K86" t="n">
-        <v>336</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3648,26 +3418,19 @@
         <v>-27985.52417424</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>335</v>
-      </c>
-      <c r="K87" t="n">
-        <v>336</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3692,26 +3455,19 @@
         <v>-27967.52417424</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>335</v>
-      </c>
-      <c r="K88" t="n">
-        <v>336</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3736,26 +3492,21 @@
         <v>-27807.62467424</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
         <v>335.1</v>
       </c>
-      <c r="K89" t="n">
-        <v>336</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3780,26 +3531,17 @@
         <v>-27807.62467424</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>336</v>
-      </c>
-      <c r="K90" t="n">
-        <v>336</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3824,26 +3566,21 @@
         <v>-28227.62467424</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>336</v>
-      </c>
-      <c r="K91" t="n">
-        <v>336</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>335.1</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3868,26 +3605,19 @@
         <v>-25943.78367424</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>335.9</v>
       </c>
       <c r="J92" t="n">
         <v>335.9</v>
       </c>
-      <c r="K92" t="n">
-        <v>336</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3912,26 +3642,21 @@
         <v>-24971.78367424</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>337.4</v>
-      </c>
-      <c r="K93" t="n">
-        <v>336</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>335.9</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3956,24 +3681,23 @@
         <v>-24989.78367424</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>336</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>337.6</v>
+      </c>
+      <c r="J94" t="n">
+        <v>335.9</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3998,24 +3722,19 @@
         <v>-18331.75097424</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>336</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>336.1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>336.1</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4042,22 +3761,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>336</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>336.1</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4084,22 +3800,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>336</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>336.1</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4126,22 +3839,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>336</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4166,26 +3870,21 @@
         <v>-18276.75097424</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
         <v>337.4</v>
       </c>
-      <c r="K99" t="n">
-        <v>336</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4210,24 +3909,21 @@
         <v>-14196.29737424</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>336.9</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>336</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4252,24 +3948,21 @@
         <v>-14499.50247423999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>336</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4294,24 +3987,21 @@
         <v>-14499.50247423999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>336.5</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>336</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4336,24 +4026,21 @@
         <v>-14449.04247424</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>336.5</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>336</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4378,24 +4065,21 @@
         <v>-14449.04247424</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>336.6</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>336</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4420,24 +4104,21 @@
         <v>-21244.36907424</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>336.6</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>336</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4462,24 +4143,21 @@
         <v>-21439.36907424</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>336.5</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>336</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4506,22 +4184,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>336</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4548,22 +4221,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>336</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4590,22 +4258,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>336</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4632,22 +4295,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>336</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4674,22 +4332,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>336</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4716,22 +4369,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>336</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4756,26 +4404,21 @@
         <v>-12334.88977424</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
         <v>335.9</v>
       </c>
-      <c r="K113" t="n">
-        <v>336</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4800,24 +4443,21 @@
         <v>-12238.78977424</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>335.4</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>336</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4842,24 +4482,21 @@
         <v>-12078.72977424</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>336</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4884,24 +4521,21 @@
         <v>-6603.469374239997</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>336</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4926,24 +4560,21 @@
         <v>-9875.692574239996</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>338.9</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>336</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4970,22 +4601,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>336</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5010,24 +4636,21 @@
         <v>-9820.692574239996</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>336.5</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>336</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5054,22 +4677,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>336</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5096,22 +4714,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>336</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5138,22 +4751,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>336</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5180,22 +4788,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>336</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5222,22 +4825,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>336</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5262,26 +4860,19 @@
         <v>-9950.250974239996</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>336</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-15 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3.243899999997666</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2782.994999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1095.169299999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1430.062799999997</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1589.209099999997</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>619.1025999999973</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>619.1025999999973</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-6090.897400000003</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-5825.716800000003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-6153.451200000003</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-6045.635500000003</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-6058.739400000003</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5981.739400000003</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-16902.2778</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-17069.1778</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-17872.1778</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-12143.452</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-12757.7255</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-12859.7255</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-14005.53</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -2002,17 +2002,11 @@
         <v>-26227.88387424</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2045,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2082,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2119,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2156,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2193,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2230,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2267,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2304,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2341,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2378,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2415,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2448,15 +2398,15 @@
         <v>-29707.33877424</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>335.8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>335.8</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2488,10 +2438,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2525,10 +2477,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2562,7 +2516,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2599,7 +2555,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2636,7 +2594,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2670,10 +2630,14 @@
         <v>-31873.04947424</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2710,7 +2674,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2744,10 +2710,14 @@
         <v>-31953.04947424</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>335</v>
+      </c>
+      <c r="J69" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2781,10 +2751,14 @@
         <v>-31970.05887424</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2818,10 +2792,14 @@
         <v>-31800.34807424</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2855,10 +2833,14 @@
         <v>-30936.79807424</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>336</v>
+      </c>
+      <c r="J72" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2892,10 +2874,14 @@
         <v>-30936.79807424</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2929,10 +2915,14 @@
         <v>-31556.79807424</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="J74" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2966,10 +2956,14 @@
         <v>-31556.79807424</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="J75" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3003,10 +2997,14 @@
         <v>-31586.75807424</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3040,10 +3038,14 @@
         <v>-31586.75807424</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>334.7</v>
+      </c>
+      <c r="J77" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3077,10 +3079,14 @@
         <v>-31550.93827424</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>334.7</v>
+      </c>
+      <c r="J78" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3114,12 +3120,14 @@
         <v>-31550.93827424</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>334.8</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3153,12 +3161,14 @@
         <v>-31550.93827424</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>334.8</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3192,12 +3202,14 @@
         <v>-31550.93827424</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>334.8</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3231,12 +3243,14 @@
         <v>-32347.45447424</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>334.8</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3270,10 +3284,14 @@
         <v>-27970.52417424</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>334.3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3310,7 +3328,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3347,7 +3367,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3384,7 +3406,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3421,7 +3445,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3458,7 +3484,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3492,12 +3520,12 @@
         <v>-27807.62467424</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3531,16 +3559,20 @@
         <v>-27807.62467424</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
       <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -3566,15 +3598,17 @@
         <v>-28227.62467424</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>336</v>
+      </c>
       <c r="J91" t="n">
-        <v>335.1</v>
+        <v>335.8</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3605,15 +3639,17 @@
         <v>-25943.78367424</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>335.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>335.9</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+        <v>335.8</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3646,11 +3682,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>335.9</v>
+        <v>335.8</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -3681,17 +3717,15 @@
         <v>-24989.78367424</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>337.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>335.9</v>
+        <v>335.8</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -3722,15 +3756,17 @@
         <v>-18331.75097424</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>336.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>336.1</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+        <v>335.8</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3763,11 +3799,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>336.1</v>
+        <v>335.8</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3802,11 +3838,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>336.1</v>
+        <v>335.8</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3840,8 +3876,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>335.8</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3870,15 +3912,15 @@
         <v>-18276.75097424</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>337.4</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -3909,12 +3951,12 @@
         <v>-14196.29737424</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>336.9</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3948,12 +3990,12 @@
         <v>-14499.50247423999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>337</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3987,12 +4029,12 @@
         <v>-14499.50247423999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>336.5</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4026,12 +4068,12 @@
         <v>-14449.04247424</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>336.5</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4065,12 +4107,12 @@
         <v>-14449.04247424</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>336.6</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4104,12 +4146,12 @@
         <v>-21244.36907424</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>336.6</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4143,12 +4185,12 @@
         <v>-21439.36907424</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>336.5</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4185,7 +4227,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4222,7 +4266,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4259,7 +4305,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4296,7 +4344,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4333,7 +4383,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4370,7 +4422,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4404,12 +4458,12 @@
         <v>-12334.88977424</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>335.9</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4443,12 +4497,12 @@
         <v>-12238.78977424</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>335.4</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4482,12 +4536,12 @@
         <v>-12078.72977424</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>336</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4521,12 +4575,12 @@
         <v>-6603.469374239997</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>337</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4560,12 +4614,12 @@
         <v>-9875.692574239996</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>338.9</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4602,7 +4656,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4636,12 +4692,12 @@
         <v>-9820.692574239996</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>336.5</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4678,7 +4734,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4715,7 +4773,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4752,7 +4812,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4789,7 +4851,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4826,7 +4890,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4860,19 +4926,23 @@
         <v>-9950.250974239996</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>335.8</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
       <c r="M125" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-15 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3.243899999997666</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2782.994999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1095.169299999998</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1430.062799999997</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1589.209099999997</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>619.1025999999973</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>619.1025999999973</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-6090.897400000003</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-5825.716800000003</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-6153.451200000003</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-6045.635500000003</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-6058.739400000003</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5981.739400000003</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-16902.2778</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-17069.1778</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -2398,14 +2398,10 @@
         <v>-29707.33877424</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="J61" t="n">
-        <v>335.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2438,824 +2434,712 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
         <v>335.8</v>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="C63" t="n">
+        <v>335.7</v>
+      </c>
+      <c r="D63" t="n">
+        <v>335.8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>335</v>
+      </c>
+      <c r="F63" t="n">
+        <v>168.7107</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-29876.04947424</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="C64" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="E64" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="F64" t="n">
+        <v>900</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-30776.04947424</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>333.7</v>
+      </c>
+      <c r="C65" t="n">
+        <v>333.7</v>
+      </c>
+      <c r="D65" t="n">
+        <v>333.7</v>
+      </c>
+      <c r="E65" t="n">
+        <v>333.7</v>
+      </c>
+      <c r="F65" t="n">
+        <v>882</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-29894.04947424</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>333.7</v>
+      </c>
+      <c r="C66" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>333.7</v>
+      </c>
+      <c r="E66" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2121</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-32015.04947424</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>335</v>
+      </c>
+      <c r="C67" t="n">
+        <v>335</v>
+      </c>
+      <c r="D67" t="n">
+        <v>335</v>
+      </c>
+      <c r="E67" t="n">
+        <v>335</v>
+      </c>
+      <c r="F67" t="n">
+        <v>142</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-31873.04947424</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>335</v>
+      </c>
+      <c r="C68" t="n">
+        <v>335</v>
+      </c>
+      <c r="D68" t="n">
+        <v>335</v>
+      </c>
+      <c r="E68" t="n">
+        <v>335</v>
+      </c>
+      <c r="F68" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-31873.04947424</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="C69" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="D69" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="E69" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="F69" t="n">
+        <v>80</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-31953.04947424</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="C70" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="D70" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="E70" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="F70" t="n">
+        <v>17.0094</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-31970.05887424</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>336</v>
+      </c>
+      <c r="C71" t="n">
+        <v>336</v>
+      </c>
+      <c r="D71" t="n">
+        <v>336</v>
+      </c>
+      <c r="E71" t="n">
+        <v>336</v>
+      </c>
+      <c r="F71" t="n">
+        <v>169.7108</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-31800.34807424</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="C72" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="D72" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="E72" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="F72" t="n">
+        <v>863.55</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-30936.79807424</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="C63" t="n">
-        <v>335.7</v>
-      </c>
-      <c r="D63" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="E63" t="n">
-        <v>335</v>
-      </c>
-      <c r="F63" t="n">
-        <v>168.7107</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-29876.04947424</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="C73" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="E73" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="F73" t="n">
+        <v>164.7962</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-30936.79807424</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="E74" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="F74" t="n">
+        <v>620</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-31556.79807424</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C75" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="D75" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="E75" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>30.6801</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-31556.79807424</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>334.7</v>
+      </c>
+      <c r="C76" t="n">
+        <v>334.7</v>
+      </c>
+      <c r="D76" t="n">
+        <v>334.7</v>
+      </c>
+      <c r="E76" t="n">
+        <v>334.7</v>
+      </c>
+      <c r="F76" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-31586.75807424</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>334.7</v>
+      </c>
+      <c r="C77" t="n">
+        <v>334.7</v>
+      </c>
+      <c r="D77" t="n">
+        <v>334.7</v>
+      </c>
+      <c r="E77" t="n">
+        <v>334.7</v>
+      </c>
+      <c r="F77" t="n">
+        <v>105</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-31586.75807424</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C78" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="D78" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="E78" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>35.8198</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-31550.93827424</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C79" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="D79" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="E79" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="F79" t="n">
+        <v>272</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-31550.93827424</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="J79" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C80" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="D80" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="E80" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="F80" t="n">
+        <v>51.92</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-31550.93827424</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="J80" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="C81" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="D81" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="E81" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="F81" t="n">
+        <v>436.7764</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-31550.93827424</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="J81" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>334.7</v>
+      </c>
+      <c r="C82" t="n">
+        <v>334.3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>334.7</v>
+      </c>
+      <c r="E82" t="n">
+        <v>334.3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>796.5162</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-32347.45447424</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="J82" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>333.6</v>
-      </c>
-      <c r="C64" t="n">
-        <v>333.6</v>
-      </c>
-      <c r="D64" t="n">
-        <v>333.6</v>
-      </c>
-      <c r="E64" t="n">
-        <v>333.6</v>
-      </c>
-      <c r="F64" t="n">
-        <v>900</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-30776.04947424</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>333.7</v>
-      </c>
-      <c r="C65" t="n">
-        <v>333.7</v>
-      </c>
-      <c r="D65" t="n">
-        <v>333.7</v>
-      </c>
-      <c r="E65" t="n">
-        <v>333.7</v>
-      </c>
-      <c r="F65" t="n">
-        <v>882</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-29894.04947424</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>333.7</v>
-      </c>
-      <c r="C66" t="n">
-        <v>333.6</v>
-      </c>
-      <c r="D66" t="n">
-        <v>333.7</v>
-      </c>
-      <c r="E66" t="n">
-        <v>333.6</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2121</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-32015.04947424</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>335</v>
-      </c>
-      <c r="C67" t="n">
-        <v>335</v>
-      </c>
-      <c r="D67" t="n">
-        <v>335</v>
-      </c>
-      <c r="E67" t="n">
-        <v>335</v>
-      </c>
-      <c r="F67" t="n">
-        <v>142</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-31873.04947424</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>333.6</v>
-      </c>
-      <c r="J67" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>335</v>
-      </c>
-      <c r="C68" t="n">
-        <v>335</v>
-      </c>
-      <c r="D68" t="n">
-        <v>335</v>
-      </c>
-      <c r="E68" t="n">
-        <v>335</v>
-      </c>
-      <c r="F68" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-31873.04947424</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>334.9</v>
-      </c>
-      <c r="C69" t="n">
-        <v>334.9</v>
-      </c>
-      <c r="D69" t="n">
-        <v>334.9</v>
-      </c>
-      <c r="E69" t="n">
-        <v>334.9</v>
-      </c>
-      <c r="F69" t="n">
-        <v>80</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-31953.04947424</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>335</v>
-      </c>
-      <c r="J69" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>333.6</v>
-      </c>
-      <c r="C70" t="n">
-        <v>333.6</v>
-      </c>
-      <c r="D70" t="n">
-        <v>333.6</v>
-      </c>
-      <c r="E70" t="n">
-        <v>333.6</v>
-      </c>
-      <c r="F70" t="n">
-        <v>17.0094</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-31970.05887424</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>334.9</v>
-      </c>
-      <c r="J70" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>336</v>
-      </c>
-      <c r="C71" t="n">
-        <v>336</v>
-      </c>
-      <c r="D71" t="n">
-        <v>336</v>
-      </c>
-      <c r="E71" t="n">
-        <v>336</v>
-      </c>
-      <c r="F71" t="n">
-        <v>169.7108</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-31800.34807424</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>333.6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="C72" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="D72" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="E72" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="F72" t="n">
-        <v>863.55</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-30936.79807424</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>336</v>
-      </c>
-      <c r="J72" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="C73" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="D73" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="E73" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="F73" t="n">
-        <v>164.7962</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-30936.79807424</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="C74" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="D74" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="E74" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="F74" t="n">
-        <v>620</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-31556.79807424</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>336.8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="C75" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="D75" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="E75" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="F75" t="n">
-        <v>30.6801</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-31556.79807424</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="J75" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="C76" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="D76" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="E76" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="F76" t="n">
-        <v>29.96</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-31586.75807424</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="J76" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="C77" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="D77" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="E77" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="F77" t="n">
-        <v>105</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-31586.75807424</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="J77" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="C78" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="D78" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="E78" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="F78" t="n">
-        <v>35.8198</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-31550.93827424</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="J78" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="C79" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="D79" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="E79" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="F79" t="n">
-        <v>272</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-31550.93827424</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="J79" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="C80" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="D80" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="E80" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="F80" t="n">
-        <v>51.92</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-31550.93827424</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="J80" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="C81" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="D81" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="E81" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="F81" t="n">
-        <v>436.7764</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-31550.93827424</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="C82" t="n">
-        <v>334.3</v>
-      </c>
-      <c r="D82" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="E82" t="n">
-        <v>334.3</v>
-      </c>
-      <c r="F82" t="n">
-        <v>796.5162</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-32347.45447424</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="J82" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3290,7 +3174,7 @@
         <v>334.3</v>
       </c>
       <c r="J83" t="n">
-        <v>335.8</v>
+        <v>334.8</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3325,11 +3209,13 @@
         <v>-27970.52417424</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>334.5</v>
+      </c>
       <c r="J84" t="n">
-        <v>335.8</v>
+        <v>334.8</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3364,11 +3250,13 @@
         <v>-27967.52417424</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>334.5</v>
+      </c>
       <c r="J85" t="n">
-        <v>335.8</v>
+        <v>334.8</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3407,7 +3295,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>335.8</v>
+        <v>334.8</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3442,11 +3330,13 @@
         <v>-27985.52417424</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>335</v>
+      </c>
       <c r="J87" t="n">
-        <v>335.8</v>
+        <v>334.8</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3481,11 +3371,13 @@
         <v>-27967.52417424</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>335</v>
+      </c>
       <c r="J88" t="n">
-        <v>335.8</v>
+        <v>334.8</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3520,11 +3412,13 @@
         <v>-27807.62467424</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>335.1</v>
+      </c>
       <c r="J89" t="n">
-        <v>335.8</v>
+        <v>334.8</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3559,11 +3453,13 @@
         <v>-27807.62467424</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>336</v>
+      </c>
       <c r="J90" t="n">
-        <v>335.8</v>
+        <v>334.8</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3604,7 +3500,7 @@
         <v>336</v>
       </c>
       <c r="J91" t="n">
-        <v>335.8</v>
+        <v>334.8</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3639,11 +3535,13 @@
         <v>-25943.78367424</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>335.9</v>
+      </c>
       <c r="J92" t="n">
-        <v>335.8</v>
+        <v>334.8</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3678,11 +3576,13 @@
         <v>-24971.78367424</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>337.4</v>
+      </c>
       <c r="J93" t="n">
-        <v>335.8</v>
+        <v>334.8</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3717,11 +3617,13 @@
         <v>-24989.78367424</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>337.6</v>
+      </c>
       <c r="J94" t="n">
-        <v>335.8</v>
+        <v>334.8</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3756,11 +3658,13 @@
         <v>-18331.75097424</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>336.1</v>
+      </c>
       <c r="J95" t="n">
-        <v>335.8</v>
+        <v>334.8</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3795,19 +3699,19 @@
         <v>-18331.75097424</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>335.8</v>
+        <v>334.8</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>0.999778972520908</v>
       </c>
       <c r="M96" t="inlineStr"/>
     </row>
@@ -3834,17 +3738,11 @@
         <v>-18331.75097424</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3873,17 +3771,11 @@
         <v>-16599.75107424</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3912,15 +3804,15 @@
         <v>-18276.75097424</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>335.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>337.4</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -3951,12 +3843,12 @@
         <v>-14196.29737424</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>335.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>336.9</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3993,9 +3885,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>335.8</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4029,12 +3919,12 @@
         <v>-14499.50247423999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>335.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4068,12 +3958,10 @@
         <v>-14449.04247424</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>335.8</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4107,12 +3995,12 @@
         <v>-14449.04247424</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>335.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>336.6</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4146,12 +4034,10 @@
         <v>-21244.36907424</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>335.8</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4185,12 +4071,10 @@
         <v>-21439.36907424</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>335.8</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4224,12 +4108,10 @@
         <v>-21439.36907424</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>335.8</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4263,12 +4145,12 @@
         <v>-10071.34417424</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>335.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4302,12 +4184,10 @@
         <v>-10579.20517424</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>335.8</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4341,20 +4221,16 @@
         <v>-9746.475174239997</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>335.8</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -4383,14 +4259,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4422,14 +4292,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4461,14 +4325,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4500,14 +4358,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4539,14 +4391,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4575,17 +4421,11 @@
         <v>-6603.469374239997</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4614,17 +4454,11 @@
         <v>-9875.692574239996</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4653,17 +4487,11 @@
         <v>-10420.69257424</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4692,17 +4520,11 @@
         <v>-9820.692574239996</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4731,17 +4553,11 @@
         <v>-9820.692574239996</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4770,17 +4586,11 @@
         <v>-9673.215274239996</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4809,17 +4619,11 @@
         <v>-10633.21527424</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4848,17 +4652,11 @@
         <v>-10633.21527424</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4887,17 +4685,11 @@
         <v>-10633.21527424</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4926,23 +4718,17 @@
         <v>-9950.250974239996</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>335.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
       <c r="M125" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-15 BackTest STRAT.xlsx
@@ -451,7 +451,7 @@
         <v>3.243899999997666</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2782.994999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1095.169299999998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1430.062799999997</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1589.209099999997</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>619.1025999999973</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-6153.451200000003</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-6045.635500000003</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-6058.739400000003</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5981.739400000003</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-16902.2778</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-17069.1778</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-17872.1778</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-16028.3855</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-16078.3855</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-12143.452</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-13257.7255</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-12757.7255</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-12859.7255</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-12859.7255</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-14005.53</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-14005.53</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-26074.67247424</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-26074.67247424</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2765,9 +2765,11 @@
         <v>-30936.79807424</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>336</v>
+      </c>
       <c r="J72" t="n">
         <v>333.6</v>
       </c>
@@ -2876,10 +2878,14 @@
         <v>-31556.79807424</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="J75" t="n">
+        <v>334.8</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -2909,11 +2915,19 @@
         <v>-31586.75807424</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2942,11 +2956,19 @@
         <v>-31586.75807424</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>334.7</v>
+      </c>
+      <c r="J77" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2975,10 +2997,14 @@
         <v>-31550.93827424</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>334.7</v>
+      </c>
+      <c r="J78" t="n">
+        <v>334.7</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
@@ -3014,9 +3040,13 @@
         <v>334.8</v>
       </c>
       <c r="J79" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+        <v>334.7</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3051,7 +3081,7 @@
         <v>334.8</v>
       </c>
       <c r="J80" t="n">
-        <v>334.8</v>
+        <v>334.7</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3094,11 +3124,7 @@
       <c r="J81" t="n">
         <v>334.8</v>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3250,11 +3276,9 @@
         <v>-27967.52417424</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>334.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>334.8</v>
       </c>
@@ -3576,11 +3600,9 @@
         <v>-24971.78367424</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>337.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>334.8</v>
       </c>
@@ -3804,17 +3826,11 @@
         <v>-18276.75097424</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>337.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3843,17 +3859,11 @@
         <v>-14196.29737424</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>336.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +3896,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3919,17 +3925,11 @@
         <v>-14499.50247423999</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>336.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3958,15 +3958,11 @@
         <v>-14449.04247424</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3995,17 +3991,11 @@
         <v>-14449.04247424</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>336.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4034,15 +4024,11 @@
         <v>-21244.36907424</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4075,11 +4061,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4108,15 +4090,11 @@
         <v>-21439.36907424</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4145,17 +4123,11 @@
         <v>-10071.34417424</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>335.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4188,11 +4160,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4225,12 +4193,10 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
       <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -4256,7 +4222,7 @@
         <v>-10046.02517424</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4421,7 +4387,7 @@
         <v>-6603.469374239997</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4454,7 +4420,7 @@
         <v>-9875.692574239996</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4487,7 +4453,7 @@
         <v>-10420.69257424</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4520,7 +4486,7 @@
         <v>-9820.692574239996</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4553,7 +4519,7 @@
         <v>-9820.692574239996</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4586,7 +4552,7 @@
         <v>-9673.215274239996</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4619,7 +4585,7 @@
         <v>-10633.21527424</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4652,7 +4618,7 @@
         <v>-10633.21527424</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4685,7 +4651,7 @@
         <v>-10633.21527424</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4718,7 +4684,7 @@
         <v>-9950.250974239996</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>

--- a/BackTest/2020-01-15 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-15 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2792.7</v>
       </c>
       <c r="G2" t="n">
-        <v>3.243899999997666</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2779.7511</v>
       </c>
       <c r="G3" t="n">
-        <v>2782.994999999998</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1687.8257</v>
       </c>
       <c r="G4" t="n">
-        <v>1095.169299999998</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>334.8935</v>
       </c>
       <c r="G5" t="n">
-        <v>1430.062799999997</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>159.1463</v>
       </c>
       <c r="G6" t="n">
-        <v>1589.209099999997</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>970.1065</v>
       </c>
       <c r="G7" t="n">
-        <v>619.1025999999973</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>449.8935</v>
       </c>
       <c r="G8" t="n">
-        <v>619.1025999999973</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>6710</v>
       </c>
       <c r="G9" t="n">
-        <v>-6090.897400000003</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>265.1806</v>
       </c>
       <c r="G10" t="n">
-        <v>-5825.716800000003</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>327.7344</v>
       </c>
       <c r="G11" t="n">
-        <v>-6153.451200000003</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>107.8157</v>
       </c>
       <c r="G12" t="n">
-        <v>-6045.635500000003</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>13.1039</v>
       </c>
       <c r="G13" t="n">
-        <v>-6058.739400000003</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>77</v>
       </c>
       <c r="G14" t="n">
-        <v>-5981.739400000003</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>10920.5384</v>
       </c>
       <c r="G15" t="n">
-        <v>-16902.2778</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>166.9</v>
       </c>
       <c r="G16" t="n">
-        <v>-17069.1778</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>803</v>
       </c>
       <c r="G17" t="n">
-        <v>-17872.1778</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>-17869.1778</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>413.928</v>
       </c>
       <c r="G19" t="n">
-        <v>-18283.1058</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>167</v>
       </c>
       <c r="G20" t="n">
-        <v>-18450.1058</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>689.0818</v>
       </c>
       <c r="G21" t="n">
-        <v>-18450.1058</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2421.7203</v>
       </c>
       <c r="G22" t="n">
-        <v>-16028.3855</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2508.2529</v>
       </c>
       <c r="G23" t="n">
-        <v>-16028.3855</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>316.567</v>
       </c>
       <c r="G24" t="n">
-        <v>-16028.3855</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1667.5002</v>
       </c>
       <c r="G25" t="n">
-        <v>-16028.3855</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1573.2379</v>
       </c>
       <c r="G26" t="n">
-        <v>-16028.3855</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>-16078.3855</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>3934.9335</v>
       </c>
       <c r="G28" t="n">
-        <v>-12143.452</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1114.2735</v>
       </c>
       <c r="G29" t="n">
-        <v>-13257.7255</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>500</v>
       </c>
       <c r="G30" t="n">
-        <v>-12757.7255</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>102</v>
       </c>
       <c r="G31" t="n">
-        <v>-12859.7255</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>9730</v>
       </c>
       <c r="G32" t="n">
-        <v>-12859.7255</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1145.8045</v>
       </c>
       <c r="G33" t="n">
-        <v>-14005.53</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>575.634</v>
       </c>
       <c r="G34" t="n">
-        <v>-14005.53</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>246.63</v>
       </c>
       <c r="G35" t="n">
-        <v>-14252.16</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2490.7146</v>
       </c>
       <c r="G36" t="n">
-        <v>-14252.16</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1309.8639</v>
       </c>
       <c r="G37" t="n">
-        <v>-15562.0239</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1130</v>
       </c>
       <c r="G38" t="n">
-        <v>-14432.0239</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>7</v>
       </c>
       <c r="G39" t="n">
-        <v>-14439.0239</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>132.8</v>
       </c>
       <c r="G40" t="n">
-        <v>-14571.8239</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>313.53</v>
       </c>
       <c r="G41" t="n">
-        <v>-14571.8239</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>296</v>
       </c>
       <c r="G42" t="n">
-        <v>-14571.8239</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>32.95</v>
       </c>
       <c r="G43" t="n">
-        <v>-14571.8239</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>11502.84857424</v>
       </c>
       <c r="G44" t="n">
-        <v>-26074.67247424</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>920.77</v>
       </c>
       <c r="G45" t="n">
-        <v>-26074.67247424</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>12.43</v>
       </c>
       <c r="G46" t="n">
-        <v>-26074.67247424</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1290</v>
       </c>
       <c r="G47" t="n">
-        <v>-26074.67247424</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>438</v>
       </c>
       <c r="G48" t="n">
-        <v>-26074.67247424</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>153.2114</v>
       </c>
       <c r="G49" t="n">
-        <v>-26227.88387424</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>58.04</v>
       </c>
       <c r="G50" t="n">
-        <v>-26227.88387424</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>22.16</v>
       </c>
       <c r="G51" t="n">
-        <v>-26250.04387424</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>634</v>
       </c>
       <c r="G52" t="n">
-        <v>-25616.04387424</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>2066</v>
       </c>
       <c r="G53" t="n">
-        <v>-25616.04387424</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>20.2776</v>
       </c>
       <c r="G54" t="n">
-        <v>-25595.76627424</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1130</v>
       </c>
       <c r="G55" t="n">
-        <v>-26725.76627424</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>3052.2323</v>
       </c>
       <c r="G56" t="n">
-        <v>-29777.99857424</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>61.6598</v>
       </c>
       <c r="G57" t="n">
-        <v>-29716.33877424</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>144.258</v>
       </c>
       <c r="G58" t="n">
-        <v>-29716.33877424</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>7</v>
       </c>
       <c r="G59" t="n">
-        <v>-29709.33877424</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>-29707.33877424</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>228.3432</v>
       </c>
       <c r="G61" t="n">
-        <v>-29707.33877424</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>8.99</v>
       </c>
       <c r="G62" t="n">
-        <v>-29707.33877424</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>168.7107</v>
       </c>
       <c r="G63" t="n">
-        <v>-29876.04947424</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>900</v>
       </c>
       <c r="G64" t="n">
-        <v>-30776.04947424</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>882</v>
       </c>
       <c r="G65" t="n">
-        <v>-29894.04947424</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,21 @@
         <v>2121</v>
       </c>
       <c r="G66" t="n">
-        <v>-32015.04947424</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>333.7</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2399,21 @@
         <v>142</v>
       </c>
       <c r="G67" t="n">
-        <v>-31873.04947424</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>333.6</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2435,21 @@
         <v>21.7</v>
       </c>
       <c r="G68" t="n">
-        <v>-31873.04947424</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2471,21 @@
         <v>80</v>
       </c>
       <c r="G69" t="n">
-        <v>-31953.04947424</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2507,19 @@
         <v>17.0094</v>
       </c>
       <c r="G70" t="n">
-        <v>-31970.05887424</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,22 +2541,21 @@
         <v>169.7108</v>
       </c>
       <c r="G71" t="n">
-        <v>-31800.34807424</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
         <v>333.6</v>
       </c>
-      <c r="J71" t="n">
-        <v>333.6</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2762,26 +2577,21 @@
         <v>863.55</v>
       </c>
       <c r="G72" t="n">
-        <v>-30936.79807424</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
         <v>336</v>
       </c>
-      <c r="J72" t="n">
-        <v>333.6</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2803,24 +2613,21 @@
         <v>164.7962</v>
       </c>
       <c r="G73" t="n">
-        <v>-30936.79807424</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>336.8</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>333.6</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2842,18 +2649,21 @@
         <v>620</v>
       </c>
       <c r="G74" t="n">
-        <v>-31556.79807424</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>336.8</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2875,22 +2685,21 @@
         <v>30.6801</v>
       </c>
       <c r="G75" t="n">
-        <v>-31556.79807424</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
         <v>334.8</v>
       </c>
-      <c r="J75" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2912,26 +2721,21 @@
         <v>29.96</v>
       </c>
       <c r="G76" t="n">
-        <v>-31586.75807424</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
         <v>334.8</v>
       </c>
-      <c r="J76" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2953,26 +2757,21 @@
         <v>105</v>
       </c>
       <c r="G77" t="n">
-        <v>-31586.75807424</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
         <v>334.7</v>
       </c>
-      <c r="J77" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2994,22 +2793,19 @@
         <v>35.8198</v>
       </c>
       <c r="G78" t="n">
-        <v>-31550.93827424</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="J78" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3031,26 +2827,19 @@
         <v>272</v>
       </c>
       <c r="G79" t="n">
-        <v>-31550.93827424</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="J79" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3072,26 +2861,19 @@
         <v>51.92</v>
       </c>
       <c r="G80" t="n">
-        <v>-31550.93827424</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="J80" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3113,22 +2895,19 @@
         <v>436.7764</v>
       </c>
       <c r="G81" t="n">
-        <v>-31550.93827424</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3150,26 +2929,21 @@
         <v>796.5162</v>
       </c>
       <c r="G82" t="n">
-        <v>-32347.45447424</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
         <v>334.8</v>
       </c>
-      <c r="J82" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3191,26 +2965,21 @@
         <v>4376.9303</v>
       </c>
       <c r="G83" t="n">
-        <v>-27970.52417424</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
         <v>334.3</v>
       </c>
-      <c r="J83" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3232,26 +3001,21 @@
         <v>4733.5535</v>
       </c>
       <c r="G84" t="n">
-        <v>-27970.52417424</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
         <v>334.5</v>
       </c>
-      <c r="J84" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3273,24 +3037,21 @@
         <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>-27967.52417424</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>334.5</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3312,24 +3073,19 @@
         <v>18</v>
       </c>
       <c r="G86" t="n">
-        <v>-27985.52417424</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3351,26 +3107,19 @@
         <v>158.9803</v>
       </c>
       <c r="G87" t="n">
-        <v>-27985.52417424</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>335</v>
-      </c>
-      <c r="J87" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3392,26 +3141,19 @@
         <v>18</v>
       </c>
       <c r="G88" t="n">
-        <v>-27967.52417424</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>335</v>
-      </c>
-      <c r="J88" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3433,26 +3175,19 @@
         <v>159.8995</v>
       </c>
       <c r="G89" t="n">
-        <v>-27807.62467424</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>335.1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3474,26 +3209,19 @@
         <v>244.1899</v>
       </c>
       <c r="G90" t="n">
-        <v>-27807.62467424</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>336</v>
-      </c>
-      <c r="J90" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3515,26 +3243,19 @@
         <v>420</v>
       </c>
       <c r="G91" t="n">
-        <v>-28227.62467424</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>336</v>
-      </c>
-      <c r="J91" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3556,26 +3277,19 @@
         <v>2283.841</v>
       </c>
       <c r="G92" t="n">
-        <v>-25943.78367424</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>335.9</v>
-      </c>
-      <c r="J92" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3597,24 +3311,19 @@
         <v>972</v>
       </c>
       <c r="G93" t="n">
-        <v>-24971.78367424</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3636,26 +3345,19 @@
         <v>18</v>
       </c>
       <c r="G94" t="n">
-        <v>-24989.78367424</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>337.6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3677,26 +3379,19 @@
         <v>6658.0327</v>
       </c>
       <c r="G95" t="n">
-        <v>-18331.75097424</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>336.1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3718,24 +3413,19 @@
         <v>351.8799</v>
       </c>
       <c r="G96" t="n">
-        <v>-18331.75097424</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>334.8</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>0.999778972520908</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3757,18 +3447,19 @@
         <v>203.9999</v>
       </c>
       <c r="G97" t="n">
-        <v>-18331.75097424</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3790,18 +3481,19 @@
         <v>1731.9999</v>
       </c>
       <c r="G98" t="n">
-        <v>-16599.75107424</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3823,18 +3515,19 @@
         <v>1676.9999</v>
       </c>
       <c r="G99" t="n">
-        <v>-18276.75097424</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3856,18 +3549,19 @@
         <v>4080.4536</v>
       </c>
       <c r="G100" t="n">
-        <v>-14196.29737424</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3889,18 +3583,19 @@
         <v>303.2051</v>
       </c>
       <c r="G101" t="n">
-        <v>-14499.50247423999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3922,18 +3617,19 @@
         <v>2433.7131</v>
       </c>
       <c r="G102" t="n">
-        <v>-14499.50247423999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3955,18 +3651,19 @@
         <v>50.46</v>
       </c>
       <c r="G103" t="n">
-        <v>-14449.04247424</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3988,18 +3685,19 @@
         <v>435.5226</v>
       </c>
       <c r="G104" t="n">
-        <v>-14449.04247424</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4021,18 +3719,19 @@
         <v>6795.3266</v>
       </c>
       <c r="G105" t="n">
-        <v>-21244.36907424</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4054,18 +3753,19 @@
         <v>195</v>
       </c>
       <c r="G106" t="n">
-        <v>-21439.36907424</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4087,18 +3787,19 @@
         <v>102.0306</v>
       </c>
       <c r="G107" t="n">
-        <v>-21439.36907424</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4120,18 +3821,19 @@
         <v>11368.0249</v>
       </c>
       <c r="G108" t="n">
-        <v>-10071.34417424</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4153,18 +3855,19 @@
         <v>507.861</v>
       </c>
       <c r="G109" t="n">
-        <v>-10579.20517424</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4186,18 +3889,19 @@
         <v>832.73</v>
       </c>
       <c r="G110" t="n">
-        <v>-9746.475174239997</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4219,18 +3923,19 @@
         <v>299.55</v>
       </c>
       <c r="G111" t="n">
-        <v>-10046.02517424</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4252,18 +3957,19 @@
         <v>9.527900000000001</v>
       </c>
       <c r="G112" t="n">
-        <v>-10036.49727424</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4285,18 +3991,19 @@
         <v>2298.3925</v>
       </c>
       <c r="G113" t="n">
-        <v>-12334.88977424</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4318,18 +4025,19 @@
         <v>96.09999999999999</v>
       </c>
       <c r="G114" t="n">
-        <v>-12238.78977424</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4351,18 +4059,19 @@
         <v>160.06</v>
       </c>
       <c r="G115" t="n">
-        <v>-12078.72977424</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4384,18 +4093,19 @@
         <v>5475.2604</v>
       </c>
       <c r="G116" t="n">
-        <v>-6603.469374239997</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4417,18 +4127,19 @@
         <v>3272.2232</v>
       </c>
       <c r="G117" t="n">
-        <v>-9875.692574239996</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4450,18 +4161,19 @@
         <v>545</v>
       </c>
       <c r="G118" t="n">
-        <v>-10420.69257424</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4483,18 +4195,19 @@
         <v>600</v>
       </c>
       <c r="G119" t="n">
-        <v>-9820.692574239996</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4516,18 +4229,19 @@
         <v>3040</v>
       </c>
       <c r="G120" t="n">
-        <v>-9820.692574239996</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4549,18 +4263,19 @@
         <v>147.4773</v>
       </c>
       <c r="G121" t="n">
-        <v>-9673.215274239996</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4582,18 +4297,19 @@
         <v>960</v>
       </c>
       <c r="G122" t="n">
-        <v>-10633.21527424</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4615,18 +4331,19 @@
         <v>1347.0951</v>
       </c>
       <c r="G123" t="n">
-        <v>-10633.21527424</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4648,18 +4365,19 @@
         <v>1539.709</v>
       </c>
       <c r="G124" t="n">
-        <v>-10633.21527424</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4681,18 +4399,19 @@
         <v>682.9643</v>
       </c>
       <c r="G125" t="n">
-        <v>-9950.250974239996</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
